--- a/Input file/Costing Examples with rates.xlsx
+++ b/Input file/Costing Examples with rates.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A73FD-C898-431D-AB12-F045FB184E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C653D-433E-404F-8081-1066F8C63585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2175" windowWidth="24240" windowHeight="12705" activeTab="1" xr2:uid="{059159B7-021E-4CBE-A9CF-E0009343EA88}"/>
+    <workbookView xWindow="1725" yWindow="1110" windowWidth="26205" windowHeight="12705" activeTab="3" xr2:uid="{059159B7-021E-4CBE-A9CF-E0009343EA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Timebands" sheetId="1" r:id="rId1"/>
     <sheet name="Check" sheetId="3" r:id="rId2"/>
-    <sheet name="Rates" sheetId="2" r:id="rId3"/>
+    <sheet name="Holiday" sheetId="4" r:id="rId3"/>
+    <sheet name="Rates" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Rates!$A$1:$E$85</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14530" uniqueCount="2611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14551" uniqueCount="2614">
   <si>
     <t>objecttimeid</t>
   </si>
@@ -7860,6 +7864,15 @@
   </si>
   <si>
     <t>Rates</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -8218,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4188D6-7B13-4907-BB00-B30A2AEECED8}">
   <dimension ref="A1:J2362"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="B124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B149" activeCellId="2" sqref="A147:XFD147 A148:XFD148 A149:XFD149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83828,8 +83841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4368AE-5E03-4BF7-9949-89B2EB849530}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83842,6 +83855,7 @@
     <col min="8" max="8" width="40.140625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -84351,7 +84365,7 @@
         <v>44271</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>2519</v>
@@ -84366,35 +84380,104 @@
         <v>44269.416666666664</v>
       </c>
       <c r="K15">
-        <v>59.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44235</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44241</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44238.166666666664</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44238.75</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44235</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44241</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44239.208333333336</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44239.666666666664</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44235</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44241</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44241.291666666664</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44241.75</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
@@ -85230,22 +85313,87 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C2E2A5-5489-49B6-8B04-946774A37B3C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE59EE3-016A-4605-B7AD-1AEC2841116F}">
-  <dimension ref="A1:E85"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -85266,7 +85414,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2525</v>
       </c>
@@ -85283,7 +85431,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2526</v>
       </c>
@@ -85300,7 +85448,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2527</v>
       </c>
@@ -85317,7 +85465,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2528</v>
       </c>
@@ -85334,7 +85482,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2529</v>
       </c>
@@ -85351,7 +85499,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2530</v>
       </c>
@@ -85453,7 +85601,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2536</v>
       </c>
@@ -85470,7 +85618,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2537</v>
       </c>
@@ -85487,7 +85635,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2538</v>
       </c>
@@ -85504,7 +85652,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2539</v>
       </c>
@@ -85521,7 +85669,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2540</v>
       </c>
@@ -85538,7 +85686,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2541</v>
       </c>
@@ -85555,7 +85703,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2542</v>
       </c>
@@ -85572,7 +85720,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2543</v>
       </c>
@@ -85589,7 +85737,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2544</v>
       </c>
@@ -85606,7 +85754,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2545</v>
       </c>
@@ -85623,7 +85771,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2546</v>
       </c>
@@ -85640,7 +85788,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2547</v>
       </c>
@@ -85657,7 +85805,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2548</v>
       </c>
@@ -85674,7 +85822,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2549</v>
       </c>
@@ -85708,7 +85856,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2551</v>
       </c>
@@ -85725,7 +85873,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2552</v>
       </c>
@@ -85742,7 +85890,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2553</v>
       </c>
@@ -85759,7 +85907,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2554</v>
       </c>
@@ -85776,7 +85924,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2555</v>
       </c>
@@ -85793,7 +85941,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2556</v>
       </c>
@@ -85810,7 +85958,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2557</v>
       </c>
@@ -85827,7 +85975,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2558</v>
       </c>
@@ -85844,7 +85992,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2559</v>
       </c>
@@ -85861,7 +86009,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2560</v>
       </c>
@@ -85878,7 +86026,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2561</v>
       </c>
@@ -85895,7 +86043,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2562</v>
       </c>
@@ -85912,7 +86060,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2563</v>
       </c>
@@ -85929,7 +86077,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2564</v>
       </c>
@@ -85946,7 +86094,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2565</v>
       </c>
@@ -85963,7 +86111,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2566</v>
       </c>
@@ -85980,7 +86128,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2567</v>
       </c>
@@ -85997,7 +86145,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2568</v>
       </c>
@@ -86014,7 +86162,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2569</v>
       </c>
@@ -86031,7 +86179,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2570</v>
       </c>
@@ -86048,7 +86196,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2571</v>
       </c>
@@ -86065,7 +86213,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2572</v>
       </c>
@@ -86082,7 +86230,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2573</v>
       </c>
@@ -86099,7 +86247,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2574</v>
       </c>
@@ -86116,7 +86264,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2575</v>
       </c>
@@ -86133,7 +86281,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2576</v>
       </c>
@@ -86150,7 +86298,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2577</v>
       </c>
@@ -86167,7 +86315,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2578</v>
       </c>
@@ -86184,7 +86332,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2579</v>
       </c>
@@ -86201,7 +86349,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2580</v>
       </c>
@@ -86218,7 +86366,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2581</v>
       </c>
@@ -86235,7 +86383,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2582</v>
       </c>
@@ -86252,7 +86400,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2583</v>
       </c>
@@ -86269,7 +86417,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2584</v>
       </c>
@@ -86286,7 +86434,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2585</v>
       </c>
@@ -86303,7 +86451,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2586</v>
       </c>
@@ -86320,7 +86468,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2587</v>
       </c>
@@ -86337,7 +86485,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2588</v>
       </c>
@@ -86354,7 +86502,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2589</v>
       </c>
@@ -86371,7 +86519,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2590</v>
       </c>
@@ -86388,7 +86536,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2591</v>
       </c>
@@ -86405,7 +86553,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2592</v>
       </c>
@@ -86422,7 +86570,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2593</v>
       </c>
@@ -86439,7 +86587,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2594</v>
       </c>
@@ -86456,7 +86604,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2595</v>
       </c>
@@ -86473,7 +86621,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2596</v>
       </c>
@@ -86490,7 +86638,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2597</v>
       </c>
@@ -86507,7 +86655,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2598</v>
       </c>
@@ -86524,7 +86672,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2599</v>
       </c>
@@ -86541,7 +86689,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2600</v>
       </c>
@@ -86558,7 +86706,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2601</v>
       </c>
@@ -86575,7 +86723,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2602</v>
       </c>
@@ -86592,7 +86740,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2603</v>
       </c>
@@ -86609,7 +86757,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2604</v>
       </c>
@@ -86626,7 +86774,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2605</v>
       </c>
@@ -86643,7 +86791,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2606</v>
       </c>
@@ -86660,7 +86808,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2607</v>
       </c>
@@ -86677,7 +86825,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2608</v>
       </c>
@@ -86694,7 +86842,27 @@
         <v>44197</v>
       </c>
     </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>2613</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E85" xr:uid="{3E806EB3-7C8C-4BCE-ABD6-02F84431C8C0}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1A8A6946-E104-4A44-BDB9-71FF29913755"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Input file/Costing Examples with rates.xlsx
+++ b/Input file/Costing Examples with rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C653D-433E-404F-8081-1066F8C63585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C9546-872A-426B-BA58-BBBF657C5C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1110" windowWidth="26205" windowHeight="12705" activeTab="3" xr2:uid="{059159B7-021E-4CBE-A9CF-E0009343EA88}"/>
+    <workbookView xWindow="2685" yWindow="3660" windowWidth="26205" windowHeight="12705" activeTab="3" xr2:uid="{059159B7-021E-4CBE-A9CF-E0009343EA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Timebands" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Rates" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Rates!$A$1:$E$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Rates!$A$1:$E$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14551" uniqueCount="2614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14554" uniqueCount="2615">
   <si>
     <t>objecttimeid</t>
   </si>
@@ -7873,6 +7873,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>580EB6F4-016E-4C98-7777-BB73F981E88D</t>
   </si>
 </sst>
 </file>
@@ -7882,7 +7885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7890,16 +7893,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -7907,16 +7937,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8231,8 +8284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4188D6-7B13-4907-BB00-B30A2AEECED8}">
   <dimension ref="A1:J2362"/>
   <sheetViews>
-    <sheetView topLeftCell="B124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B149" activeCellId="2" sqref="A147:XFD147 A148:XFD148 A149:XFD149"/>
+    <sheetView topLeftCell="B1382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2310" sqref="G2310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83842,7 +83895,7 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84414,8 +84467,11 @@
       <c r="J16" s="2">
         <v>44238.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>26.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -84441,13 +84497,16 @@
         <v>175</v>
       </c>
       <c r="I17" s="2">
-        <v>44239.208333333336</v>
+        <v>44317.208333333336</v>
       </c>
       <c r="J17" s="2">
-        <v>44239.666666666664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44317.666666666664</v>
+      </c>
+      <c r="K17">
+        <v>26.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -84464,7 +84523,7 @@
         <v>44241</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>2519</v>
@@ -84478,8 +84537,11 @@
       <c r="J18" s="2">
         <v>44241.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -84488,7 +84550,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -84497,7 +84559,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -84506,7 +84568,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -84515,7 +84577,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -84524,7 +84586,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -84533,7 +84595,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -84542,7 +84604,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -84551,7 +84613,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -84560,7 +84622,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -84569,7 +84631,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -84578,7 +84640,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -84587,7 +84649,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -84597,7 +84659,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -85382,11 +85444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE59EE3-016A-4605-B7AD-1AEC2841116F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85414,7 +85475,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2525</v>
       </c>
@@ -85431,7 +85492,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2526</v>
       </c>
@@ -85448,7 +85509,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2527</v>
       </c>
@@ -85465,7 +85526,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2528</v>
       </c>
@@ -85482,7 +85543,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2529</v>
       </c>
@@ -85499,7 +85560,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2530</v>
       </c>
@@ -85516,92 +85577,92 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>2531</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
         <v>26.03</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>44166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>2532</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
         <v>26.03</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>44197</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>2533</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
         <v>26.49</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>44198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>2534</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
         <v>26.03</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>44213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>2535</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
         <v>26.49</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>44256</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2536</v>
       </c>
@@ -85618,7 +85679,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2537</v>
       </c>
@@ -85635,7 +85696,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2538</v>
       </c>
@@ -85652,7 +85713,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2539</v>
       </c>
@@ -85669,7 +85730,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2540</v>
       </c>
@@ -85686,7 +85747,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2541</v>
       </c>
@@ -85703,7 +85764,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2542</v>
       </c>
@@ -85720,7 +85781,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2543</v>
       </c>
@@ -85737,7 +85798,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2544</v>
       </c>
@@ -85754,1115 +85815,1126 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>2545</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
         <v>25.08</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="6">
         <v>44166</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>2546</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5">
         <v>25.08</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="6">
         <v>44197</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>2547</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
         <v>25.51</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="6">
         <v>44198</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>2548</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5">
         <v>25.08</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="6">
         <v>44213</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>2549</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5">
         <v>25.51</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="6">
         <v>44256</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3">
+        <v>40</v>
+      </c>
+      <c r="E27" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>2550</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D27">
+      <c r="D28" s="3">
         <v>32.799999999999997</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="4">
         <v>44197</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>2551</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>1595</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>57.2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29">
-        <v>57.6</v>
       </c>
       <c r="E29" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>57.6</v>
       </c>
       <c r="E30" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D31">
-        <v>58.400000000000006</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D32">
-        <v>58.800000000000004</v>
+        <v>58.400000000000006</v>
       </c>
       <c r="E32" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D33">
-        <v>59.2</v>
+        <v>58.800000000000004</v>
       </c>
       <c r="E33" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D34">
-        <v>59.6</v>
+        <v>59.2</v>
       </c>
       <c r="E34" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="D35">
-        <v>60</v>
+        <v>59.6</v>
       </c>
       <c r="E35" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D36">
-        <v>60.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D37">
-        <v>60.800000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E37" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="D38">
-        <v>61.2</v>
+        <v>60.800000000000004</v>
       </c>
       <c r="E38" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D39">
-        <v>32.6</v>
+        <v>61.2</v>
       </c>
       <c r="E39" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>32.6</v>
       </c>
       <c r="E40" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D41">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="E41" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D42">
-        <v>33.799999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="E42" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D43">
-        <v>34.200000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E43" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D44">
-        <v>34.6</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E44" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B45" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="E45" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B46" t="s">
-        <v>455</v>
+        <v>331</v>
       </c>
       <c r="C46" t="s">
-        <v>542</v>
+        <v>435</v>
       </c>
       <c r="D46">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="E46" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B47" t="s">
-        <v>774</v>
+        <v>455</v>
       </c>
       <c r="C47" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D47">
-        <v>35.799999999999997</v>
+        <v>35.4</v>
       </c>
       <c r="E47" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B48" t="s">
-        <v>730</v>
+        <v>774</v>
       </c>
       <c r="C48" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D48">
-        <v>36.200000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E48" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B49" t="s">
         <v>730</v>
       </c>
       <c r="C49" t="s">
-        <v>644</v>
+        <v>559</v>
       </c>
       <c r="D49">
-        <v>36.6</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E49" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B50" t="s">
-        <v>664</v>
+        <v>730</v>
       </c>
       <c r="C50" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="E50" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>664</v>
       </c>
       <c r="C51" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="D51">
-        <v>37.4</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B52" t="s">
         <v>233</v>
       </c>
       <c r="C52" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D52">
-        <v>37.799999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="E52" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="D53">
-        <v>38.200000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E53" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>770</v>
+        <v>702</v>
       </c>
       <c r="D54">
-        <v>38.6</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E54" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>839</v>
+        <v>770</v>
       </c>
       <c r="D55">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="E55" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>868</v>
+        <v>839</v>
       </c>
       <c r="D56">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="E56" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="D57">
-        <v>39.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="E57" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D58">
-        <v>40.200000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E58" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>958</v>
+        <v>894</v>
       </c>
       <c r="D59">
-        <v>40.6</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E59" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>1086</v>
+        <v>958</v>
       </c>
       <c r="D60">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="E60" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>1272</v>
+        <v>1086</v>
       </c>
       <c r="D61">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E61" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>1383</v>
+        <v>1272</v>
       </c>
       <c r="D62">
-        <v>41.8</v>
+        <v>41.4</v>
       </c>
       <c r="E62" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="D63">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="E63" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>1406</v>
+      <c r="C64" t="s">
+        <v>1388</v>
       </c>
       <c r="D64">
-        <v>42.6</v>
+        <v>42.2</v>
       </c>
       <c r="E64" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C65" t="s">
-        <v>1419</v>
+      <c r="C65" s="1" t="s">
+        <v>1406</v>
       </c>
       <c r="D65">
-        <v>43</v>
+        <v>42.6</v>
       </c>
       <c r="E65" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="D66">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="E66" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>1589</v>
+        <v>1423</v>
       </c>
       <c r="D67">
-        <v>43.8</v>
+        <v>43.4</v>
       </c>
       <c r="E67" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="D68">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="E68" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>1694</v>
+        <v>1605</v>
       </c>
       <c r="D69">
-        <v>44.599999999999994</v>
+        <v>44.2</v>
       </c>
       <c r="E69" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>1708</v>
+        <v>1694</v>
       </c>
       <c r="D70">
-        <v>45</v>
+        <v>44.599999999999994</v>
       </c>
       <c r="E70" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="D71">
-        <v>45.4</v>
+        <v>45</v>
       </c>
       <c r="E71" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>1841</v>
+        <v>1716</v>
       </c>
       <c r="D72">
-        <v>45.8</v>
+        <v>45.4</v>
       </c>
       <c r="E72" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>1925</v>
+        <v>1841</v>
       </c>
       <c r="D73">
-        <v>46.2</v>
+        <v>45.8</v>
       </c>
       <c r="E73" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>1946</v>
+        <v>1925</v>
       </c>
       <c r="D74">
-        <v>46.599999999999994</v>
+        <v>46.2</v>
       </c>
       <c r="E74" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B75" t="s">
-        <v>455</v>
+        <v>331</v>
       </c>
       <c r="C75" t="s">
-        <v>2084</v>
+        <v>1946</v>
       </c>
       <c r="D75">
-        <v>47</v>
+        <v>46.599999999999994</v>
       </c>
       <c r="E75" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B76" t="s">
-        <v>774</v>
+        <v>455</v>
       </c>
       <c r="C76" t="s">
-        <v>2093</v>
+        <v>2084</v>
       </c>
       <c r="D76">
-        <v>47.4</v>
+        <v>47</v>
       </c>
       <c r="E76" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B77" t="s">
-        <v>730</v>
+        <v>774</v>
       </c>
       <c r="C77" t="s">
-        <v>2121</v>
+        <v>2093</v>
       </c>
       <c r="D77">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
       <c r="E77" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B78" t="s">
         <v>730</v>
       </c>
       <c r="C78" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="D78">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="E78" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B79" t="s">
-        <v>664</v>
+        <v>730</v>
       </c>
       <c r="C79" t="s">
-        <v>2134</v>
+        <v>2124</v>
       </c>
       <c r="D79">
-        <v>48.599999999999994</v>
+        <v>48.2</v>
       </c>
       <c r="E79" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>664</v>
       </c>
       <c r="C80" t="s">
-        <v>2152</v>
+        <v>2134</v>
       </c>
       <c r="D80">
-        <v>49</v>
+        <v>48.599999999999994</v>
       </c>
       <c r="E80" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B81" t="s">
         <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>2205</v>
+        <v>2152</v>
       </c>
       <c r="D81">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="E81" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>2495</v>
+        <v>2205</v>
       </c>
       <c r="D82">
-        <v>51</v>
+        <v>49.4</v>
       </c>
       <c r="E82" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>2504</v>
+        <v>2495</v>
       </c>
       <c r="D83">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="E83" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="D84">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="E84" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B85" t="s">
-        <v>2609</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>2609</v>
+        <v>2508</v>
       </c>
       <c r="D85">
-        <v>50</v>
+        <v>51.8</v>
       </c>
       <c r="E85" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
         <v>2613</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E85" xr:uid="{3E806EB3-7C8C-4BCE-ABD6-02F84431C8C0}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1A8A6946-E104-4A44-BDB9-71FF29913755"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E86" xr:uid="{3E806EB3-7C8C-4BCE-ABD6-02F84431C8C0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Input file/Costing Examples with rates.xlsx
+++ b/Input file/Costing Examples with rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C9546-872A-426B-BA58-BBBF657C5C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3CE57A-504F-4BA5-AE70-225F62A8E2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="3660" windowWidth="26205" windowHeight="12705" activeTab="3" xr2:uid="{059159B7-021E-4CBE-A9CF-E0009343EA88}"/>
+    <workbookView xWindow="765" yWindow="945" windowWidth="26205" windowHeight="12705" activeTab="3" xr2:uid="{059159B7-021E-4CBE-A9CF-E0009343EA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Timebands" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14554" uniqueCount="2615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14556" uniqueCount="2615">
   <si>
     <t>objecttimeid</t>
   </si>
@@ -7872,10 +7872,10 @@
     <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>580EB6F4-016E-4C98-7777-BB73F981E88D</t>
+  </si>
+  <si>
+    <t>QQFB7D16-8224-4E42-9FC0-D4F23A15D1E3</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7893,43 +7893,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -7937,39 +7910,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8284,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4188D6-7B13-4907-BB00-B30A2AEECED8}">
   <dimension ref="A1:J2362"/>
   <sheetViews>
-    <sheetView topLeftCell="B1382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2310" sqref="G2310"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85444,10 +85394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE59EE3-016A-4605-B7AD-1AEC2841116F}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85560,7 +85510,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2530</v>
       </c>
@@ -85577,92 +85527,92 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2531</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
         <v>26.03</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>44166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2532</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
         <v>26.03</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2533</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
         <v>26.49</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>44198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2534</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
         <v>26.03</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>44213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2535</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
         <v>26.49</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>44256</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2536</v>
       </c>
@@ -85815,126 +85765,126 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>2545</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
         <v>25.08</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="2">
         <v>44166</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>2546</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
         <v>25.08</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>2547</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
         <v>25.51</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="2">
         <v>44198</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>2548</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
         <v>25.08</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="2">
         <v>44213</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>2549</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
         <v>25.51</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="2">
         <v>44256</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B27" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>40</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>44228</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>2550</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>32.799999999999997</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2551</v>
       </c>
@@ -86818,7 +86768,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2603</v>
       </c>
@@ -86835,7 +86785,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2604</v>
       </c>
@@ -86852,7 +86802,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2605</v>
       </c>
@@ -86869,7 +86819,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2606</v>
       </c>
@@ -86886,7 +86836,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2607</v>
       </c>
@@ -86903,7 +86853,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2608</v>
       </c>
@@ -86920,17 +86870,21 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F104" t="s">
-        <v>2613</v>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D87">
+        <v>49</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44228</v>
       </c>
     </row>
   </sheetData>
